--- a/timesheet - Evan Odell.xlsx
+++ b/timesheet - Evan Odell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanodell/Documents/Code/all-women-shortlists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE7278D-ACC3-0144-ABAA-F02E063ABAD5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A12F338-015F-F748-AC10-C36E1E18522F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3400" yWindow="960" windowWidth="25020" windowHeight="15880" xr2:uid="{C04C7DB1-3835-C041-9778-CB05F2FC04E8}"/>
   </bookViews>
@@ -264,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -341,6 +341,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB5CFC0-CAD9-4441-A429-CBE7AE2F9016}">
-  <dimension ref="B2:F122"/>
+  <dimension ref="B2:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1549,7 +1552,7 @@
         <v>43328</v>
       </c>
       <c r="C69" s="5" t="str">
-        <f t="shared" ref="C69:C121" si="1">TEXT(WEEKDAY(B69), "dddd")</f>
+        <f t="shared" ref="C69:C133" si="1">TEXT(WEEKDAY(B69), "dddd")</f>
         <v>Thursday</v>
       </c>
       <c r="D69" s="23">
@@ -2120,7 +2123,7 @@
       </c>
       <c r="E112" s="16"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" s="2">
         <v>43372</v>
       </c>
@@ -2135,7 +2138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="3">
         <v>43373</v>
       </c>
@@ -2150,7 +2153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="3">
         <v>43374</v>
       </c>
@@ -2163,7 +2166,7 @@
       </c>
       <c r="E115" s="16"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" s="2">
         <v>43375</v>
       </c>
@@ -2176,7 +2179,7 @@
       </c>
       <c r="E116" s="16"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="3">
         <v>43376</v>
       </c>
@@ -2189,7 +2192,7 @@
       </c>
       <c r="E117" s="16"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" s="3">
         <v>43377</v>
       </c>
@@ -2202,7 +2205,7 @@
       </c>
       <c r="E118" s="16"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="2">
         <v>43378</v>
       </c>
@@ -2215,7 +2218,7 @@
       </c>
       <c r="E119" s="16"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="3">
         <v>43379</v>
       </c>
@@ -2228,7 +2231,7 @@
       </c>
       <c r="E120" s="16"/>
     </row>
-    <row r="121" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="3">
         <v>43380</v>
       </c>
@@ -2241,21 +2244,255 @@
       </c>
       <c r="E121" s="16"/>
     </row>
-    <row r="122" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="25" t="s">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="3">
+        <v>43381</v>
+      </c>
+      <c r="C122" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="D122" s="23">
+        <v>0</v>
+      </c>
+      <c r="E122" s="16"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B123" s="3">
+        <v>43382</v>
+      </c>
+      <c r="C123" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="D123" s="23">
+        <v>0</v>
+      </c>
+      <c r="E123" s="16"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B124" s="3">
+        <v>43383</v>
+      </c>
+      <c r="C124" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="D124" s="23">
+        <v>0</v>
+      </c>
+      <c r="E124" s="16"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B125" s="3">
+        <v>43384</v>
+      </c>
+      <c r="C125" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="D125" s="23">
+        <v>0</v>
+      </c>
+      <c r="E125" s="16"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B126" s="3">
+        <v>43385</v>
+      </c>
+      <c r="C126" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Friday</v>
+      </c>
+      <c r="D126" s="23">
+        <v>0</v>
+      </c>
+      <c r="E126" s="16"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B127" s="3">
+        <v>43386</v>
+      </c>
+      <c r="C127" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Saturday</v>
+      </c>
+      <c r="D127" s="23">
+        <v>0</v>
+      </c>
+      <c r="E127" s="16"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="3">
+        <v>43387</v>
+      </c>
+      <c r="C128" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Sunday</v>
+      </c>
+      <c r="D128" s="23">
+        <v>0</v>
+      </c>
+      <c r="E128" s="16"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B129" s="3">
+        <v>43388</v>
+      </c>
+      <c r="C129" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Monday</v>
+      </c>
+      <c r="D129" s="23">
+        <v>0</v>
+      </c>
+      <c r="E129" s="16"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B130" s="3">
+        <v>43389</v>
+      </c>
+      <c r="C130" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="D130" s="23">
+        <v>0</v>
+      </c>
+      <c r="E130" s="16"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B131" s="3">
+        <v>43390</v>
+      </c>
+      <c r="C131" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="D131" s="23">
+        <v>0</v>
+      </c>
+      <c r="E131" s="16"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B132" s="3">
+        <v>43391</v>
+      </c>
+      <c r="C132" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Thursday</v>
+      </c>
+      <c r="D132" s="23">
+        <v>0</v>
+      </c>
+      <c r="E132" s="16"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B133" s="3">
+        <v>43392</v>
+      </c>
+      <c r="C133" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Friday</v>
+      </c>
+      <c r="D133" s="23">
+        <v>0</v>
+      </c>
+      <c r="E133" s="16"/>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B134" s="3">
+        <v>43393</v>
+      </c>
+      <c r="C134" s="5" t="str">
+        <f t="shared" ref="C134:C139" si="2">TEXT(WEEKDAY(B134), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="D134" s="23">
+        <v>2</v>
+      </c>
+      <c r="E134" s="16"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B135" s="3">
+        <v>43394</v>
+      </c>
+      <c r="C135" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Sunday</v>
+      </c>
+      <c r="D135" s="23">
+        <v>3</v>
+      </c>
+      <c r="E135" s="16"/>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B136" s="3">
+        <v>43395</v>
+      </c>
+      <c r="C136" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Monday</v>
+      </c>
+      <c r="D136" s="23">
+        <v>0</v>
+      </c>
+      <c r="E136" s="16"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B137" s="3">
+        <v>43396</v>
+      </c>
+      <c r="C137" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Tuesday</v>
+      </c>
+      <c r="D137" s="23">
+        <v>0</v>
+      </c>
+      <c r="E137" s="16"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B138" s="3">
+        <v>43397</v>
+      </c>
+      <c r="C138" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Wednesday</v>
+      </c>
+      <c r="D138" s="23">
         <v>1</v>
       </c>
-      <c r="C122" s="26"/>
-      <c r="D122" s="24">
-        <f>SUM(D4:D121)</f>
-        <v>145</v>
-      </c>
-      <c r="E122" s="20"/>
-      <c r="F122" s="6"/>
+      <c r="E138" s="16"/>
+    </row>
+    <row r="139" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="3">
+        <v>43398</v>
+      </c>
+      <c r="C139" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Thursday</v>
+      </c>
+      <c r="D139" s="27">
+        <v>2</v>
+      </c>
+      <c r="E139" s="16"/>
+    </row>
+    <row r="140" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="26"/>
+      <c r="D140" s="24">
+        <f>SUM(D4:D139)</f>
+        <v>153</v>
+      </c>
+      <c r="E140" s="20"/>
+      <c r="F140" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B140:C140"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
